--- a/public/importacion/Plantilla Matriz Legal.xlsx
+++ b/public/importacion/Plantilla Matriz Legal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="8190"/>
@@ -87,9 +87,6 @@
     <t>TipoNormaLegal_idTipoNormaLegal</t>
   </si>
   <si>
-    <t>articuloAplicableMatrizlegalDetalle</t>
-  </si>
-  <si>
     <t>ExpideNormaLegal_idExpideNormaLegal</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>AMBIENTAL</t>
+  </si>
+  <si>
+    <t>articuloAplicableMatrizLegalDetalle</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,37 +700,37 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>31</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>32</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="13">
         <v>0</v>
